--- a/ThermoML Mapping.xlsx
+++ b/ThermoML Mapping.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrey\Dropbox\CML\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Cloud\PythonScripts\ThermoML\thermoml_converter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DD90C43-0CA4-4597-A0F9-0435013F374D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A1DBD46-7B0C-4B47-8DE5-930A573FCA72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="169">
   <si>
     <t>ThermoML</t>
   </si>
@@ -502,6 +502,36 @@
   </si>
   <si>
     <t>number</t>
+  </si>
+  <si>
+    <t>eExpPurpose</t>
+  </si>
+  <si>
+    <t>sCompiler</t>
+  </si>
+  <si>
+    <t>sContributor</t>
+  </si>
+  <si>
+    <t>dateDateAdded</t>
+  </si>
+  <si>
+    <t>date Data was added</t>
+  </si>
+  <si>
+    <t>contributor</t>
+  </si>
+  <si>
+    <t>compiler(?)</t>
+  </si>
+  <si>
+    <t>Experimental purpose</t>
+  </si>
+  <si>
+    <t>Contraint value / unit and type</t>
+  </si>
+  <si>
+    <t>significant digits</t>
   </si>
 </sst>
 </file>
@@ -524,7 +554,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -585,8 +615,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -622,11 +658,52 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -645,6 +722,10 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -925,10 +1006,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O97"/>
+  <dimension ref="A1:O102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="F82" sqref="F82"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1582,314 +1663,324 @@
       </c>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9" t="s">
+      <c r="D50" s="18"/>
+      <c r="E50" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="F50" s="9"/>
-      <c r="G50" s="9"/>
-      <c r="H50" s="9"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="18"/>
+      <c r="H50" s="18"/>
     </row>
     <row r="51" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="5"/>
+      <c r="A51" s="5" t="s">
+        <v>166</v>
+      </c>
       <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
-      <c r="H51" s="10"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="E51" s="19"/>
+      <c r="F51" s="19"/>
+      <c r="G51" s="19"/>
+      <c r="H51" s="19"/>
     </row>
     <row r="52" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="5"/>
+      <c r="A52" s="5" t="s">
+        <v>165</v>
+      </c>
       <c r="B52" s="5"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
-      <c r="H52" s="10"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C52" s="17"/>
+      <c r="D52" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="E52" s="19"/>
+      <c r="F52" s="19"/>
+      <c r="G52" s="19"/>
+      <c r="H52" s="19"/>
+    </row>
+    <row r="53" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>89</v>
+        <v>164</v>
       </c>
       <c r="B53" s="5"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="F53" s="10"/>
-      <c r="G53" s="10"/>
-      <c r="H53" s="10"/>
-      <c r="I53" s="1"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="5"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="E53" s="19"/>
+      <c r="F53" s="19"/>
+      <c r="G53" s="19"/>
+      <c r="H53" s="19"/>
+    </row>
+    <row r="54" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
+        <v>163</v>
+      </c>
       <c r="B54" s="5"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="G54" s="10"/>
-      <c r="H54" s="10"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C54" s="17"/>
+      <c r="D54" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="E54" s="19"/>
+      <c r="F54" s="19"/>
+      <c r="G54" s="19"/>
+      <c r="H54" s="19"/>
+    </row>
+    <row r="55" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="5"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
-      <c r="D55" s="10"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="10"/>
-      <c r="G55" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="H55" s="10"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="5" t="s">
-        <v>95</v>
-      </c>
+      <c r="D55" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="E55" s="16"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="16"/>
+      <c r="H55" s="16"/>
+    </row>
+    <row r="56" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="5"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
       <c r="D56" s="10"/>
-      <c r="E56" s="10"/>
+      <c r="E56" s="10" t="s">
+        <v>115</v>
+      </c>
       <c r="F56" s="10"/>
       <c r="G56" s="10"/>
-      <c r="H56" s="10" t="s">
-        <v>93</v>
-      </c>
+      <c r="H56" s="10"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
       <c r="D57" s="10"/>
-      <c r="E57" s="10"/>
+      <c r="E57" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="F57" s="10"/>
       <c r="G57" s="10"/>
-      <c r="H57" s="10" t="s">
-        <v>94</v>
-      </c>
+      <c r="H57" s="10"/>
+      <c r="I57" s="1"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="5" t="s">
-        <v>98</v>
-      </c>
+      <c r="A58" s="5"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
       <c r="D58" s="10"/>
-      <c r="E58" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="F58" s="10"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10" t="s">
+        <v>90</v>
+      </c>
       <c r="G58" s="10"/>
       <c r="H58" s="10"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="5" t="s">
-        <v>100</v>
-      </c>
+      <c r="A59" s="5"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
       <c r="D59" s="10"/>
       <c r="E59" s="10"/>
-      <c r="F59" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="G59" s="10"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10" t="s">
+        <v>91</v>
+      </c>
       <c r="H59" s="10"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
       <c r="D60" s="10"/>
-      <c r="E60" s="10" t="s">
-        <v>101</v>
-      </c>
+      <c r="E60" s="10"/>
       <c r="F60" s="10"/>
       <c r="G60" s="10"/>
-      <c r="H60" s="10"/>
+      <c r="H60" s="10" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
       <c r="D61" s="10"/>
-      <c r="E61" s="10" t="s">
-        <v>103</v>
-      </c>
+      <c r="E61" s="10"/>
       <c r="F61" s="10"/>
       <c r="G61" s="10"/>
-      <c r="H61" s="10"/>
+      <c r="H61" s="10" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
       <c r="D62" s="10"/>
-      <c r="E62" s="10"/>
-      <c r="F62" s="10" t="s">
-        <v>104</v>
-      </c>
+      <c r="E62" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="F62" s="10"/>
       <c r="G62" s="10"/>
       <c r="H62" s="10"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
       <c r="D63" s="10"/>
       <c r="E63" s="10"/>
       <c r="F63" s="10" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G63" s="10"/>
       <c r="H63" s="10"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
       <c r="D64" s="10"/>
-      <c r="E64" s="10"/>
-      <c r="F64" s="10" t="s">
-        <v>106</v>
-      </c>
+      <c r="E64" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="F64" s="10"/>
       <c r="G64" s="10"/>
       <c r="H64" s="10"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
       <c r="D65" s="10"/>
-      <c r="E65" s="10"/>
-      <c r="F65" s="10" t="s">
-        <v>107</v>
-      </c>
+      <c r="E65" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="F65" s="10"/>
       <c r="G65" s="10"/>
       <c r="H65" s="10"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
-      <c r="D66" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="E66" s="11"/>
-      <c r="F66" s="11"/>
-      <c r="G66" s="11"/>
-      <c r="H66" s="11"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="G66" s="10"/>
+      <c r="H66" s="10"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
-      <c r="D67" s="11"/>
-      <c r="E67" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="F67" s="11"/>
-      <c r="G67" s="11"/>
-      <c r="H67" s="11"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G67" s="10"/>
+      <c r="H67" s="10"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
-      <c r="D68" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="E68" s="12"/>
-      <c r="F68" s="12"/>
-      <c r="G68" s="12"/>
-      <c r="H68" s="12"/>
+      <c r="D68" s="10"/>
+      <c r="E68" s="10"/>
+      <c r="F68" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="G68" s="10"/>
+      <c r="H68" s="10"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="5"/>
+      <c r="A69" s="5" t="s">
+        <v>112</v>
+      </c>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
-      <c r="D69" s="12"/>
-      <c r="E69" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="F69" s="12"/>
-      <c r="G69" s="12"/>
-      <c r="H69" s="12"/>
+      <c r="D69" s="10"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="G69" s="10"/>
+      <c r="H69" s="10"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="5"/>
+      <c r="A70" s="5" t="s">
+        <v>118</v>
+      </c>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
-      <c r="D70" s="12"/>
-      <c r="E70" s="12"/>
-      <c r="F70" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="G70" s="12"/>
-      <c r="H70" s="12"/>
+      <c r="D70" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="E70" s="11"/>
+      <c r="F70" s="11"/>
+      <c r="G70" s="11"/>
+      <c r="H70" s="11"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="5"/>
+      <c r="A71" s="5" t="s">
+        <v>100</v>
+      </c>
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
-      <c r="D71" s="12"/>
-      <c r="E71" s="12"/>
-      <c r="F71" s="12"/>
-      <c r="G71" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="H71" s="12"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="F71" s="11"/>
+      <c r="G71" s="11"/>
+      <c r="H71" s="11"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="5"/>
+      <c r="A72" s="5" t="s">
+        <v>120</v>
+      </c>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
-      <c r="D72" s="12"/>
+      <c r="D72" s="12" t="s">
+        <v>119</v>
+      </c>
       <c r="E72" s="12"/>
       <c r="F72" s="12"/>
       <c r="G72" s="12"/>
-      <c r="H72" s="12" t="s">
-        <v>124</v>
-      </c>
+      <c r="H72" s="12"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="5"/>
+      <c r="A73" s="5" t="s">
+        <v>109</v>
+      </c>
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
       <c r="D73" s="12"/>
       <c r="E73" s="12" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F73" s="12"/>
       <c r="G73" s="12"/>
@@ -1900,324 +1991,387 @@
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
       <c r="D74" s="12"/>
-      <c r="E74" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="F74" s="12"/>
+      <c r="E74" s="12"/>
+      <c r="F74" s="12" t="s">
+        <v>122</v>
+      </c>
       <c r="G74" s="12"/>
-      <c r="H74" s="12" t="s">
-        <v>126</v>
-      </c>
+      <c r="H74" s="12"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="5"/>
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
       <c r="D75" s="12"/>
-      <c r="E75" s="12" t="s">
-        <v>128</v>
-      </c>
+      <c r="E75" s="12"/>
       <c r="F75" s="12"/>
-      <c r="G75" s="12"/>
+      <c r="G75" s="12" t="s">
+        <v>123</v>
+      </c>
       <c r="H75" s="12"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
-        <v>130</v>
+        <v>167</v>
       </c>
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
-      <c r="D76" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="E76" s="15"/>
-      <c r="F76" s="15"/>
-      <c r="G76" s="15"/>
-      <c r="H76" s="15"/>
+      <c r="D76" s="12"/>
+      <c r="E76" s="12"/>
+      <c r="F76" s="12"/>
+      <c r="G76" s="12"/>
+      <c r="H76" s="12" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="5" t="s">
-        <v>138</v>
-      </c>
+      <c r="A77" s="5"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
-      <c r="D77" s="15"/>
-      <c r="E77" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="F77" s="15"/>
-      <c r="G77" s="15"/>
-      <c r="H77" s="15"/>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D77" s="12"/>
+      <c r="E77" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="F77" s="12"/>
+      <c r="G77" s="12"/>
+      <c r="H77" s="12"/>
+    </row>
+    <row r="78" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="5"/>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
-      <c r="D78" s="15"/>
-      <c r="E78" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="F78" s="15"/>
-      <c r="G78" s="15"/>
-      <c r="H78" s="15"/>
+      <c r="D78" s="12"/>
+      <c r="E78" s="12"/>
+      <c r="F78" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="G78" s="12"/>
+      <c r="H78" s="12"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="5"/>
+      <c r="A79" s="5" t="s">
+        <v>143</v>
+      </c>
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
-      <c r="D79" s="15"/>
-      <c r="E79" s="15"/>
-      <c r="F79" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="G79" s="15"/>
-      <c r="H79" s="15"/>
+      <c r="D79" s="12"/>
+      <c r="E79" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="F79" s="12"/>
+      <c r="G79" s="12"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
-        <v>139</v>
+        <v>168</v>
       </c>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
-      <c r="D80" s="15"/>
-      <c r="E80" s="15"/>
-      <c r="F80" s="15"/>
-      <c r="G80" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="H80" s="15"/>
+      <c r="D80" s="12"/>
+      <c r="E80" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="F80" s="12"/>
+      <c r="G80" s="12"/>
+      <c r="H80" s="12"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
-      <c r="D81" s="15"/>
+      <c r="D81" s="15" t="s">
+        <v>129</v>
+      </c>
       <c r="E81" s="15"/>
       <c r="F81" s="15"/>
-      <c r="G81" s="15" t="s">
-        <v>135</v>
-      </c>
+      <c r="G81" s="15"/>
       <c r="H81" s="15"/>
     </row>
-    <row r="82" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
       <c r="D82" s="15"/>
-      <c r="E82" s="15"/>
-      <c r="F82" s="15" t="s">
-        <v>46</v>
-      </c>
+      <c r="E82" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="F82" s="15"/>
       <c r="G82" s="15"/>
       <c r="H82" s="15"/>
     </row>
-    <row r="83" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="5" t="s">
-        <v>100</v>
-      </c>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="5"/>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
       <c r="D83" s="15"/>
-      <c r="E83" s="15"/>
+      <c r="E83" s="15" t="s">
+        <v>132</v>
+      </c>
       <c r="F83" s="15"/>
-      <c r="G83" s="15" t="s">
-        <v>47</v>
-      </c>
+      <c r="G83" s="15"/>
       <c r="H83" s="15"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="5" t="s">
-        <v>142</v>
-      </c>
+      <c r="A84" s="5"/>
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
       <c r="D84" s="15"/>
-      <c r="E84" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="F84" s="15"/>
+      <c r="E84" s="15"/>
+      <c r="F84" s="15" t="s">
+        <v>133</v>
+      </c>
       <c r="G84" s="15"/>
       <c r="H84" s="15"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
       <c r="D85" s="15"/>
       <c r="E85" s="15"/>
-      <c r="F85" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="G85" s="15"/>
+      <c r="F85" s="15"/>
+      <c r="G85" s="15" t="s">
+        <v>134</v>
+      </c>
       <c r="H85" s="15"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="5"/>
+      <c r="A86" s="5" t="s">
+        <v>140</v>
+      </c>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
-      <c r="D86" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="E86" s="13"/>
-      <c r="F86" s="13"/>
-      <c r="G86" s="13"/>
-      <c r="H86" s="13"/>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D86" s="15"/>
+      <c r="E86" s="15"/>
+      <c r="F86" s="15"/>
+      <c r="G86" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="H86" s="15"/>
+    </row>
+    <row r="87" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
-      <c r="D87" s="13"/>
-      <c r="E87" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="F87" s="13"/>
-      <c r="G87" s="13"/>
-      <c r="H87" s="13"/>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D87" s="15"/>
+      <c r="E87" s="15"/>
+      <c r="F87" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="G87" s="15"/>
+      <c r="H87" s="15"/>
+    </row>
+    <row r="88" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
-        <v>148</v>
+        <v>100</v>
       </c>
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
-      <c r="D88" s="13"/>
-      <c r="E88" s="13"/>
-      <c r="F88" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="G88" s="13"/>
-      <c r="H88" s="13"/>
+      <c r="D88" s="15"/>
+      <c r="E88" s="15"/>
+      <c r="F88" s="15"/>
+      <c r="G88" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="H88" s="15"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
-      <c r="D89" s="13"/>
-      <c r="E89" s="13"/>
-      <c r="F89" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="G89" s="13"/>
-      <c r="H89" s="13"/>
+      <c r="D89" s="15"/>
+      <c r="E89" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="F89" s="15"/>
+      <c r="G89" s="15"/>
+      <c r="H89" s="15"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
-        <v>75</v>
+        <v>143</v>
       </c>
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
-      <c r="D90" s="13"/>
-      <c r="E90" s="13"/>
-      <c r="F90" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="G90" s="13"/>
-      <c r="H90" s="13"/>
+      <c r="D90" s="15"/>
+      <c r="E90" s="15"/>
+      <c r="F90" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="G90" s="15"/>
+      <c r="H90" s="15"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="5" t="s">
-        <v>155</v>
-      </c>
+      <c r="A91" s="5"/>
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
-      <c r="D91" s="14"/>
-      <c r="E91" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="F91" s="14"/>
-      <c r="G91" s="14"/>
-      <c r="H91" s="14"/>
+      <c r="D91" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="E91" s="13"/>
+      <c r="F91" s="13"/>
+      <c r="G91" s="13"/>
+      <c r="H91" s="13"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
-      <c r="D92" s="14"/>
-      <c r="E92" s="14"/>
-      <c r="F92" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="G92" s="14"/>
-      <c r="H92" s="14"/>
+      <c r="D92" s="13"/>
+      <c r="E92" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="F92" s="13"/>
+      <c r="G92" s="13"/>
+      <c r="H92" s="13"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="5"/>
+      <c r="A93" s="5" t="s">
+        <v>148</v>
+      </c>
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
-      <c r="D93" s="14"/>
-      <c r="E93" s="14"/>
-      <c r="F93" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="G93" s="14"/>
-      <c r="H93" s="14"/>
+      <c r="D93" s="13"/>
+      <c r="E93" s="13"/>
+      <c r="F93" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="G93" s="13"/>
+      <c r="H93" s="13"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="5"/>
+      <c r="A94" s="5" t="s">
+        <v>149</v>
+      </c>
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
-      <c r="D94" s="14"/>
-      <c r="E94" s="14"/>
-      <c r="F94" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="G94" s="14"/>
-      <c r="H94" s="14"/>
+      <c r="D94" s="13"/>
+      <c r="E94" s="13"/>
+      <c r="F94" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="G94" s="13"/>
+      <c r="H94" s="13"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
-        <v>157</v>
+        <v>75</v>
       </c>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
-      <c r="D95" s="14"/>
-      <c r="E95" s="14"/>
-      <c r="F95" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="G95" s="14"/>
-      <c r="H95" s="14"/>
+      <c r="D95" s="13"/>
+      <c r="E95" s="13"/>
+      <c r="F95" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="G95" s="13"/>
+      <c r="H95" s="13"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
       <c r="D96" s="14"/>
-      <c r="E96" s="14"/>
+      <c r="E96" s="14" t="s">
+        <v>151</v>
+      </c>
       <c r="F96" s="14"/>
-      <c r="G96" s="14" t="s">
-        <v>104</v>
-      </c>
+      <c r="G96" s="14"/>
       <c r="H96" s="14"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
       <c r="D97" s="14"/>
       <c r="E97" s="14"/>
-      <c r="F97" s="14"/>
-      <c r="G97" s="14" t="s">
+      <c r="F97" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="G97" s="14"/>
+      <c r="H97" s="14"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="5"/>
+      <c r="B98" s="5"/>
+      <c r="C98" s="5"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="14"/>
+      <c r="F98" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="G98" s="14"/>
+      <c r="H98" s="14"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="5"/>
+      <c r="B99" s="5"/>
+      <c r="C99" s="5"/>
+      <c r="D99" s="14"/>
+      <c r="E99" s="14"/>
+      <c r="F99" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="G99" s="14"/>
+      <c r="H99" s="14"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B100" s="5"/>
+      <c r="C100" s="5"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="14"/>
+      <c r="F100" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="G100" s="14"/>
+      <c r="H100" s="14"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B101" s="5"/>
+      <c r="C101" s="5"/>
+      <c r="D101" s="14"/>
+      <c r="E101" s="14"/>
+      <c r="F101" s="14"/>
+      <c r="G101" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="H101" s="14"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B102" s="5"/>
+      <c r="C102" s="5"/>
+      <c r="D102" s="14"/>
+      <c r="E102" s="14"/>
+      <c r="F102" s="14"/>
+      <c r="G102" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="H97" s="14"/>
+      <c r="H102" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
